--- a/biology/Zoologie/Boule_et_Bill_2/Boule_et_Bill_2.xlsx
+++ b/biology/Zoologie/Boule_et_Bill_2/Boule_et_Bill_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boule et Bill 2 est une comédie franco-belge réalisée par Pascal Bourdiaux, tourné en 2016 et sorti en 2017.
 Il s'agit de la suite du film Boule et Bill d'Alexandre Charlot et Franck Magnier, sorti en 2013.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille de Boule mène une existence aussi heureuse que paisible. Bill est parfaitement intégré dans cette petite famille, Boule travaille bien à l'école, sa maman donne des cours de piano à domicile tandis que son père est un dessinateur reconnu. Tout bascule lorsque l'éditrice de ses bandes dessinées, bourrue et acariâtre, rejette le travail du père de Boule.
 </t>
@@ -543,10 +557,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Titre original : Boule et Bill 2[1]
+Titre original : Boule et Bill 2
 Réalisation : Pascal Bourdiaux
 Scénario, adaptation et dialogues : Benjamin Guedj, d'après les personnages créés par Jean Roba
 Musique : Mathieu Lamboley
@@ -557,26 +573,26 @@
 Montage : Audrey Simonaud
 Production : Cyril Colbeau-Justin et Jean-Baptiste Dupont
 Coproduction : Serge de Poucques, Sylvain Goldberg, Nadia Khamlichi, Adrian Politowski et Gilles Waterkeyn
-Sociétés de production[2] :
+Sociétés de production :
 France : LGM Productions, en coproduction avec Pathé Films, TF1 Films Production, CN5 Productions et Appaloosa Films, avec la participation de Orange Cinéma Séries et TF1, A Plus Image 7 et Palatine Étoile 14
 Belgique : en coproduction avec Nexus Factory et Umedia, en association avec uFund, avec le soutien de la Région wallonne, la Tax shelter du Gouvernement Fédéral Belge et les investisseurs Tax shelter
-Sociétés de distribution[3] : Pathé Distribution (France) ; Distri7 (Belgique) ; Sphère Films (Québec) ; Pathé Films AG (Suisse romande)
-Budget : 15 844 942 €[4]
+Sociétés de distribution : Pathé Distribution (France) ; Distri7 (Belgique) ; Sphère Films (Québec) ; Pathé Films AG (Suisse romande)
+Budget : 15 844 942 €
 Pays de production :  France,  Belgique
 Langue originale : français
-Format[5],[3] : couleur - son Dolby 5.1
+Format, : couleur - son Dolby 5.1
 Genre : comédie
 Durée : 85 minutes
-Dates de sortie[6] :
+Dates de sortie :
 France : 19 mars 2017 (Festival 2 Cinéma 2 Valenciennes) ; 12 avril 2017 (sortie nationale)
-Belgique : 5 avril 2017[7]
-Suisse romande : 12 avril 2017[8]
-Québec : 21 juillet 2017[9]
-Classification[10] :
-France : tous publics (conseillé à partir de 8 ans)[11],[12]
-Belgique : tous publics (Alle Leeftijden)[7]
-Suisse romande : interdit aux moins de 6 ans[13]
-Québec : tous publics (G - General Rating)[9]</t>
+Belgique : 5 avril 2017
+Suisse romande : 12 avril 2017
+Québec : 21 juillet 2017
+Classification :
+France : tous publics (conseillé à partir de 8 ans),
+Belgique : tous publics (Alle Leeftijden)
+Suisse romande : interdit aux moins de 6 ans
+Québec : tous publics (G - General Rating)</t>
         </is>
       </c>
     </row>
@@ -604,7 +620,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Franck Dubosc : Pierre Roba
 Mathilde Seigner : Carine Roba
@@ -650,15 +668,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Boule et Bill 2 est le quatrième film de Pascal Bourdiaux et son deuxième en 2017, quelques mois après le film Mes trésors.
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boule et Bill 2 est le quatrième film de Pascal Bourdiaux et son deuxième en 2017, quelques mois après le film Mes trésors.
 Son scénario rassemble beaucoup d'histoires de la bande-dessinée Boule et Bill, dont il est adapté[réf. nécessaire].
 Franck Dubosc et Mathilde Seigner y sont, après la série cinématographique Camping, à nouveau rassemblés à l'affiche.
-Attribution des rôles
-Seuls Franck Dubosc et Manu Payet reviennent. Marina Foïs ayant décidé de ne pas revenir, elle est remplacée par Mathilde Seigner jugée plus prédisposée à jouer un rôle de mère de famille sans réel relief[14]. Charlie Langendries, qui joue son premier rôle au cinéma, succède à Charles Crombez, devenu trop grand pour reprendre son rôle de Boule.
-Tournage
-Le tournage s'est déroulé en Belgique, notamment dans la région de Bruxelles, en juin 2016.
-Le cocker qui « joue » Bill est le propre chien du dresseur, Manuel Senra. De nombreux trucages et effets spéciaux relatifs aux animaux ont été utilisés. Le film compte six chiens, un oiseau, une tortue et un chat[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -684,15 +702,130 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seuls Franck Dubosc et Manu Payet reviennent. Marina Foïs ayant décidé de ne pas revenir, elle est remplacée par Mathilde Seigner jugée plus prédisposée à jouer un rôle de mère de famille sans réel relief. Charlie Langendries, qui joue son premier rôle au cinéma, succède à Charles Crombez, devenu trop grand pour reprendre son rôle de Boule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boule_et_Bill_2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boule_et_Bill_2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage s'est déroulé en Belgique, notamment dans la région de Bruxelles, en juin 2016.
+Le cocker qui « joue » Bill est le propre chien du dresseur, Manuel Senra. De nombreux trucages et effets spéciaux relatifs aux animaux ont été utilisés. Le film compte six chiens, un oiseau, une tortue et un chat[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boule_et_Bill_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boule_et_Bill_2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réception critique
-La critique spécialisée et l'avis des spectateurs sont négatifs : le film recueille une moyenne d'avis respectivement de 2,2/5 et de 2,1/5 selon Allociné. Ces moyennes sont à peine meilleures que le premier opus. La critique à l'international est supposée négative puisque le film n'est acheté que par 5 pays[15].
-Box-office
-Le film réalise un démarrage décevant puisqu'il n'accueille que 33 313 spectateurs en France pour son premier jour d'exploitation, soit trois fois moins que le premier opus au même moment[16],[17]. Une semaine après la sortie, seulement 196 715 entrées ont été enregistrées en France[18]. Le film finit son exploitation en France avec 483 378 entrées[18], ce qui est un échec commercial compte tenu de son budget de 15,84M€.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La critique spécialisée et l'avis des spectateurs sont négatifs : le film recueille une moyenne d'avis respectivement de 2,2/5 et de 2,1/5 selon Allociné. Ces moyennes sont à peine meilleures que le premier opus. La critique à l'international est supposée négative puisque le film n'est acheté que par 5 pays.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boule_et_Bill_2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boule_et_Bill_2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film réalise un démarrage décevant puisqu'il n'accueille que 33 313 spectateurs en France pour son premier jour d'exploitation, soit trois fois moins que le premier opus au même moment,. Une semaine après la sortie, seulement 196 715 entrées ont été enregistrées en France. Le film finit son exploitation en France avec 483 378 entrées, ce qui est un échec commercial compte tenu de son budget de 15,84M€.
 </t>
         </is>
       </c>
